--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,37 +57,19 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
     <t>TC11</t>
   </si>
   <si>
-    <t>TC12</t>
-  </si>
-  <si>
     <t>TC18</t>
   </si>
   <si>
-    <t>TC19</t>
-  </si>
-  <si>
-    <t>TC21</t>
-  </si>
-  <si>
-    <t>TC30</t>
-  </si>
-  <si>
-    <t>TC33</t>
+    <t>TC20</t>
   </si>
   <si>
     <t>TC36</t>
   </si>
   <si>
-    <t>TC37</t>
+    <t>TC29</t>
   </si>
   <si>
     <t>TC39</t>
@@ -96,70 +78,34 @@
     <t>TC40</t>
   </si>
   <si>
-    <t>TC41</t>
-  </si>
-  <si>
     <t>TC43</t>
   </si>
   <si>
-    <t>TC44</t>
-  </si>
-  <si>
-    <t>TC48</t>
-  </si>
-  <si>
     <t>TC1-Fail</t>
   </si>
   <si>
     <t>TC2-Fail</t>
   </si>
   <si>
-    <t>TC6-Fail</t>
-  </si>
-  <si>
-    <t>TC8-Fail</t>
-  </si>
-  <si>
     <t>TC11-Fail</t>
   </si>
   <si>
-    <t>TC12-Fail</t>
-  </si>
-  <si>
     <t>TC18-Fail</t>
   </si>
   <si>
-    <t>TC19-Fail</t>
-  </si>
-  <si>
-    <t>TC21-Fail</t>
-  </si>
-  <si>
-    <t>TC30-Fail</t>
-  </si>
-  <si>
-    <t>TC33-Fail</t>
+    <t>TC20-Fail</t>
   </si>
   <si>
     <t>TC36-Fail</t>
   </si>
   <si>
-    <t>TC37-Fail</t>
-  </si>
-  <si>
     <t>TC39-Fail</t>
   </si>
   <si>
     <t>TC40-Fail</t>
   </si>
   <si>
-    <t>TC41-Fail</t>
-  </si>
-  <si>
-    <t>TC44-Fail</t>
-  </si>
-  <si>
-    <t>TC48-Fail</t>
+    <t>TC43-Fail</t>
   </si>
   <si>
     <t>Fails on mozzilla all the user rating input buttons are required</t>
@@ -220,10 +166,6 @@
     <t>No message regarding if the form was saved or not</t>
   </si>
   <si>
-    <t>TC43-Fail-1 
-TC43-Fail-2</t>
-  </si>
-  <si>
     <t>Logo is not vertically centered in the header</t>
   </si>
   <si>
@@ -245,6 +187,64 @@
   </si>
   <si>
     <t>1(Critical)</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>TC46-Fail</t>
+  </si>
+  <si>
+    <t>TC42-Fail-1 
+TC42-Fail-2</t>
+  </si>
+  <si>
+    <t>TC38-Fail</t>
+  </si>
+  <si>
+    <t>TC35-Fail</t>
+  </si>
+  <si>
+    <t>TC32-Fail</t>
+  </si>
+  <si>
+    <t>TC29-Fail</t>
+  </si>
+  <si>
+    <t>TC17-Fail</t>
+  </si>
+  <si>
+    <t>TC10-Fail</t>
+  </si>
+  <si>
+    <t>TC7-Fail</t>
+  </si>
+  <si>
+    <t>TC5-Fail</t>
   </si>
 </sst>
 </file>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -877,13 +877,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -891,16 +891,16 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="52">
@@ -908,16 +908,16 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -925,16 +925,16 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -942,16 +942,16 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26">
@@ -959,16 +959,16 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -976,16 +976,16 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -993,16 +993,16 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1010,16 +1010,16 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1027,16 +1027,16 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1044,16 +1044,16 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1061,16 +1061,16 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26">
@@ -1078,16 +1078,16 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1095,16 +1095,16 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1112,16 +1112,16 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="65">
@@ -1129,16 +1129,16 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39">
@@ -1146,16 +1146,16 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1166,10 +1166,10 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>63</v>
@@ -1180,16 +1180,16 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
